--- a/data/income_statement/2digits/size/03_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/03_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>03-Fishing and aquaculture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>03-Fishing and aquaculture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>63458.95037999999</v>
+        <v>71059.86000999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>63286.64440999999</v>
+        <v>76936.97812</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>68543.12004000001</v>
+        <v>82745.27669</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>73729.23791</v>
+        <v>85521.98894</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>61093.29108</v>
+        <v>74841.61696000001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>59679.24149</v>
+        <v>72516.23658</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>53063.98505</v>
+        <v>69085.96926000001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>55444.26029999999</v>
+        <v>73284.46000000001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>50876.01155</v>
+        <v>72743.81668999999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>169021.46478</v>
+        <v>195120.46921</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>214409.92388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>188886.51816</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>183792.473</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>50439.9364</v>
+        <v>57300.66232</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>57620.02628</v>
+        <v>70371.77923</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>65165.60972</v>
+        <v>77787.87465000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>53392.81098</v>
+        <v>64563.67316</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>55969.28128</v>
+        <v>68998.4041</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>55069.98736</v>
+        <v>67097.53641</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>50549.185</v>
+        <v>65128.69637000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>52515.77685</v>
+        <v>69739.16556000001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>45869.60593999999</v>
+        <v>66605.37151000001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>164050.28797</v>
+        <v>188565.19175</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>210116.49403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>181888.03602</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>174408.62</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>10831.27556</v>
+        <v>10841.59722</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>3485.99167</v>
@@ -1037,166 +953,186 @@
         <v>1431.04425</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>17574.19131</v>
+        <v>17601.19542</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>403.86488</v>
+        <v>679.4373899999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>36.09777</v>
+        <v>58.34617</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>37.59918</v>
+        <v>247.17019</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1276.31869</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3476.66718</v>
+        <v>3943.30238</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1948.39048</v>
+        <v>2590.19048</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>670.7245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2651.1986</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2344.018</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2187.73842</v>
+        <v>2917.60047</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2180.62646</v>
+        <v>3079.20722</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1946.46607</v>
+        <v>3526.35779</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2762.23562</v>
+        <v>3357.12036</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4720.14492</v>
+        <v>5163.77547</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4573.15636</v>
+        <v>5360.354</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2477.20087</v>
+        <v>3710.1027</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1652.16476</v>
+        <v>2268.97575</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1529.73843</v>
+        <v>2195.1428</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3022.786329999999</v>
+        <v>3965.08698</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3622.70535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4347.28354</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7039.835</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>303.19069</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>77.27287</v>
+        <v>120.25708</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>134.64844</v>
+        <v>1130.88611</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>183.01552</v>
+        <v>522.46268</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>21.40526</v>
+        <v>42.67367</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>46.61326</v>
+        <v>52.73755999999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>0.78746</v>
+        <v>17.8349</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>39.14499</v>
+        <v>118.76794</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>23.3373</v>
+        <v>37.95762</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>290.82681</v>
+        <v>1919.49054</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>114.93247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>115.10047</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>180.209</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>184.63584</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>41.69071</v>
+        <v>75.37911</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>47.64436</v>
+        <v>1037.48121</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>182.78395</v>
+        <v>522.2311099999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>19.67242</v>
+        <v>36.05299</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>26.70449</v>
+        <v>27.28249</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>0.78746</v>
+        <v>17.64046</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>38.52</v>
+        <v>55.27022</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6.45933</v>
+        <v>14.17222</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>257.06102</v>
+        <v>1879.46102</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>110.2658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>110.4338</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>141.414</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>13.15338</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3.96458</v>
+        <v>13.26039</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6.36774</v>
+        <v>6.40712</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>0.21667</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>0.6253300000000001</v>
+        <v>5.51317</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>17.67693</v>
@@ -1205,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>0.62499</v>
+        <v>63.49772</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3.56041</v>
+        <v>10.46784</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>21.58211</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>4.66667</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>22.433</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>105.40147</v>
@@ -1229,7 +1170,7 @@
         <v>31.61758</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>80.63633999999999</v>
+        <v>86.99778000000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>0.0149</v>
@@ -1238,10 +1179,10 @@
         <v>1.10751</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2.23184</v>
+        <v>7.77814</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0</v>
+        <v>0.19444</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0</v>
@@ -1250,220 +1191,250 @@
         <v>13.31756</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>12.18368</v>
+        <v>18.44741</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>16.362</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>63155.75969</v>
+        <v>70756.66931999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>63209.37154000001</v>
+        <v>76816.72104</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>68408.47159999999</v>
+        <v>81614.39057999999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>73546.22239</v>
+        <v>84999.52626</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>61071.88582</v>
+        <v>74798.94329</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>59632.62822999999</v>
+        <v>72463.49902</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>53063.19759</v>
+        <v>69068.13436</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>55405.11531</v>
+        <v>73165.69206</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>50852.67425</v>
+        <v>72705.85906999999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>168730.63797</v>
+        <v>193200.97867</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>214294.99141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>188771.41769</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>183612.264</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>53681.0381</v>
+        <v>58953.73579000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>53371.33611</v>
+        <v>63664.73086</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>58399.49006</v>
+        <v>67769.70282999999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>63723.41045</v>
+        <v>72470.35507000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>52166.85632</v>
+        <v>63505.11239</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>49363.85668</v>
+        <v>59931.58706000001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>42109.17045000001</v>
+        <v>56713.17157999999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>42380.23501</v>
+        <v>57014.46272</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>38503.11626</v>
+        <v>59581.2327</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>146579.52456</v>
+        <v>166451.37757</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>186534.64847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>153492.66777</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>154636.027</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>22224.55137</v>
+        <v>25822.46003</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19377.90959</v>
+        <v>23409.57685</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>20314.67822</v>
+        <v>25171.82002</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>15753.99439</v>
+        <v>21155.92982</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>22872.39845</v>
+        <v>29761.69727</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>19480.38421</v>
+        <v>24486.6142</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13404.42271</v>
+        <v>22406.06971</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>19727.92462</v>
+        <v>26403.09354</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14269.2003</v>
+        <v>27119.16692</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>58554.91618</v>
+        <v>67358.95094</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>40795.95075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56499.49441</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>62932.421</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>27433.4485</v>
+        <v>29010.79238</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>29638.82055</v>
+        <v>34592.80584</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>31896.19746</v>
+        <v>35809.68465</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>42814.73866</v>
+        <v>45589.41426000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>21720.34144</v>
+        <v>25616.95652</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>23090.8811</v>
+        <v>27462.52036</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>24022.40723</v>
+        <v>27530.32875</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>17475.47833</v>
+        <v>22911.35155</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>21371.67009</v>
+        <v>28179.36806</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>76195.56211000001</v>
+        <v>85610.22487000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>136241.02719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>83894.81723999999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>77903.174</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3434.106</v>
+        <v>3531.55115</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4005.9436</v>
+        <v>5258.81658</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6188.614380000001</v>
+        <v>6673.33316</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5132.001189999999</v>
+        <v>5702.334779999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7574.11643</v>
+        <v>8126.4586</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6715.53701</v>
+        <v>7892.675370000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4010.85412</v>
+        <v>6035.286730000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4993.47492</v>
+        <v>7516.66049</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2679.08579</v>
+        <v>4070.9619</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11695.84755</v>
+        <v>13349.00304</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8789.586589999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12260.77568</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>13223.26</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>588.9322300000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>348.66237</v>
+        <v>403.53159</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>0</v>
+        <v>114.865</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>22.67621</v>
@@ -1472,106 +1443,121 @@
         <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>77.05436</v>
+        <v>89.77713</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>671.4863899999999</v>
+        <v>741.4863899999999</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>183.35714</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>183.16008</v>
+        <v>211.73582</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>133.19872</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>708.0839400000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>837.5804400000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>577.172</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>9474.721589999999</v>
+        <v>11802.93353</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9838.03543</v>
+        <v>13151.99018</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>10008.98154</v>
+        <v>13844.68775</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>9822.81194</v>
+        <v>12529.17119</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8905.029500000001</v>
+        <v>11293.8309</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>10268.77155</v>
+        <v>12531.91196</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10954.02714</v>
+        <v>12354.96278</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13024.8803</v>
+        <v>16151.22934</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>12349.55799</v>
+        <v>13124.62637</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22151.11341</v>
+        <v>26749.6011</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>27760.34294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35278.74992</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>28976.237</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8485.25346</v>
+        <v>10492.90223</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9553.781859999999</v>
+        <v>12560.15588</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>10429.4024</v>
+        <v>14176.03823</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11229.82971</v>
+        <v>14792.11396</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>9923.74157</v>
+        <v>13760.30154</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>11058.57507</v>
+        <v>13385.63683</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>10998.5892</v>
+        <v>13761.21546</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>12394.18655</v>
+        <v>17052.54642</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>11648.15422</v>
+        <v>17248.51596</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>19665.04578</v>
+        <v>25641.4076</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>26077.66627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>35346.60047</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>36452.24</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1580,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>0</v>
+        <v>16.88059</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>35.00832</v>
@@ -1589,13 +1575,13 @@
         <v>81.19732</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>78.91199</v>
+        <v>112.42031</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0.16203</v>
+        <v>177.58097</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>0</v>
+        <v>53.87010000000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0.23427</v>
@@ -1604,169 +1590,194 @@
         <v>1.59908</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>32.25142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>196.6371</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>111.967</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1462.30307</v>
+        <v>1533.09267</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1097.20318</v>
+        <v>1173.04384</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1522.76998</v>
+        <v>1683.24123</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1247.92528</v>
+        <v>1667.11228</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1278.15685</v>
+        <v>1421.5193</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1185.39793</v>
+        <v>1517.39957</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1077.13818</v>
+        <v>1274.1331</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1064.32843</v>
+        <v>1556.4555</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1074.05591</v>
+        <v>1900.13775</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2528.15469</v>
+        <v>3766.49439</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2627.47044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3943.88126</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3760.842</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>7022.950390000001</v>
+        <v>8959.809559999998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>8456.578680000001</v>
+        <v>11387.11204</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>8906.63242</v>
+        <v>12475.91641</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>9946.89611</v>
+        <v>13089.99336</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8564.3874</v>
+        <v>12257.58492</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>9794.265150000001</v>
+        <v>11755.81695</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>9921.288990000001</v>
+        <v>12309.50139</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>11329.85812</v>
+        <v>15442.22082</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>10573.86404</v>
+        <v>15348.14394</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>17135.29201</v>
+        <v>21873.31413</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>23417.94441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>31206.08211</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>32579.431</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>989.46813</v>
+        <v>1310.0313</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>284.25357</v>
+        <v>591.8343000000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-420.42086</v>
+        <v>-331.35048</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-1407.01777</v>
+        <v>-2262.94277</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1018.71207</v>
+        <v>-2466.47064</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-789.80352</v>
+        <v>-853.7248699999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-44.56206</v>
+        <v>-1406.25268</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>630.69375</v>
+        <v>-901.31708</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>701.40377</v>
+        <v>-4123.889590000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2486.06763</v>
+        <v>1108.1935</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1682.67667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-67.85055000000004</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-7476.003</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>487.49191</v>
+        <v>739.71987</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>850.3165300000001</v>
+        <v>1162.45736</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>482.9822799999999</v>
+        <v>1175.12096</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1540.28561</v>
+        <v>2434.49123</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>447.7143199999999</v>
+        <v>4121.14386</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>549.0610799999999</v>
+        <v>3053.26147</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>488.53737</v>
+        <v>15356.80792</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>558.65744</v>
+        <v>9677.21623</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>522.37884</v>
+        <v>8283.938630000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3208.49652</v>
+        <v>50157.18451</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3584.46304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>32029.66077</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15028.964</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3.89206</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>10.30429</v>
@@ -1826,13 +1842,13 @@
         <v>23.215</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>10835.3517</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>64.6538</v>
+        <v>5792.0751</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>391.07192</v>
+        <v>3883.70192</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>20.82</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>40.909</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>26.01029</v>
+        <v>52.73567</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>25.8204</v>
+        <v>28.26882</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>66.44669999999999</v>
+        <v>484.34785</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>114.42407</v>
+        <v>124.73051</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>62.31734</v>
+        <v>1093.22675</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>29.06336</v>
+        <v>347.95365</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>57.91015</v>
+        <v>280.72469</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>48.27091</v>
+        <v>73.52373</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>114.43713</v>
+        <v>192.24938</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>50.13094</v>
+        <v>1661.6241</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>68.7423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2353.5386</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1043.862</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>60.48119999999999</v>
+        <v>109.98157</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>86.62783999999999</v>
@@ -1895,10 +1921,10 @@
         <v>53.72616</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>105.48983</v>
+        <v>734.83387</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>57.329</v>
+        <v>399.42654</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>20.2753</v>
@@ -1913,67 +1939,77 @@
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>14.04732</v>
+        <v>16.23548</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7.015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7.764060000000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6.851</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0.01983</v>
+        <v>0.41455</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>21.0994</v>
+        <v>90.6844</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9</v>
+        <v>1859.04</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>1850.04</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>1850.04</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>2784.4195</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>947.34</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1850.04</v>
+        <v>4516.42647</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1850.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4924.849939999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1854.48</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2.61959</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2.67933</v>
+        <v>2.68196</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4.13755</v>
+        <v>5.12382</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.74738</v>
+        <v>0.83011</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>0.40094</v>
@@ -1982,7 +2018,7 @@
         <v>0.01955</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0</v>
+        <v>1.03304</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>0.06308</v>
@@ -1994,52 +2030,62 @@
         <v>65.25935000000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1589.96379</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1998.326</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>73.16355</v>
+        <v>107.09951</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>79.75454000000001</v>
+        <v>104.80458</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>52.57803</v>
+        <v>218.86101</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>211.51983</v>
+        <v>390.28391</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>87.13712000000001</v>
+        <v>114.57956</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13.95328</v>
+        <v>211.15261</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>89.37612999999999</v>
+        <v>1683.39031</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>134.80194</v>
+        <v>694.0289700000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>217.03906</v>
+        <v>3267.8093</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>275.21464</v>
+        <v>42175.80324</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>864.20479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22133.01503</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9660.348</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,137 +2164,157 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>311.01993</v>
+        <v>453.08618</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>626.1595900000001</v>
+        <v>910.4046099999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>256.94694</v>
+        <v>294.3302200000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1092.42566</v>
+        <v>1168.13399</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>231.52992</v>
+        <v>654.4700700000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>462.53459</v>
+        <v>600.60536</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>328.25109</v>
+        <v>693.2681799999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>310.86771</v>
+        <v>333.10585</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>-200.16927</v>
+        <v>-7.161970000000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>932.98427</v>
+        <v>1701.01587</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>786.37095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1012.43935</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>408.395</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>465.25651</v>
+        <v>589.69152</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>381.6590400000001</v>
+        <v>644.1746999999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>579.26846</v>
+        <v>1375.33132</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>614.90763</v>
+        <v>872.4929000000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>569.56073</v>
+        <v>4750.06117</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>98.57787999999999</v>
+        <v>554.1269</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>437.85047</v>
+        <v>1731.4106</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>237.21114</v>
+        <v>953.71324</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>272.20999</v>
+        <v>2243.72836</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1241.5939</v>
+        <v>15120.48416</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1729.08325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14315.09751</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2184.77</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>19.71151</v>
+        <v>21.55821</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>27.89131</v>
+        <v>72.41288</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>29.56693</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4.993390000000001</v>
+        <v>45.80865</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>33.6135</v>
+        <v>136.96396</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4.258229999999999</v>
+        <v>48.60885</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7.95096</v>
+        <v>49.5842</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13.17246</v>
+        <v>75.18276999999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2.81212</v>
+        <v>2.89712</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>11.53929</v>
+        <v>115.02049</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>14.26798</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>197.517</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>59.4248</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15.14122</v>
+        <v>16.14122</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>59.84598</v>
+        <v>142.27944</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>380.16799</v>
@@ -2255,28 +2326,33 @@
         <v>0</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>26.72644</v>
+        <v>116.40844</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>303.44603</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>897.6908100000001</v>
+        <v>4768.12822</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>822.97</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>44.19386</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2288,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>0.08026999999999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>5</v>
@@ -2306,52 +2382,62 @@
         <v>65</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2226.39748</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>104.073</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>213.29785</v>
+        <v>282.17268</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>64.57951</v>
+        <v>78.85014</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>203.45491</v>
+        <v>755.26602</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>180.31737</v>
+        <v>217.8484</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>63.79328</v>
+        <v>650.2348900000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>16.67566</v>
+        <v>267.16936</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>230.02806</v>
+        <v>1140.8292</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>167.85901</v>
+        <v>340.62187</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>269.39782</v>
+        <v>1917.36143</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>137.15357</v>
+        <v>9885.260279999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>610.3606900000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10741.21749</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1631.636</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2363,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>27.01651</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
@@ -2372,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>14.91487</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.6</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>166.22235</v>
+        <v>175.74197</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>274.04108</v>
+        <v>476.76454</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>286.40064</v>
+        <v>448.21893</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>49.42888</v>
+        <v>201.65135</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>436.00361</v>
+        <v>3926.63171</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>72.64399</v>
+        <v>233.34869</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>173.14501</v>
+        <v>409.67389</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>56.17967</v>
+        <v>234.46257</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5e-05</v>
+        <v>323.46981</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>130.21023</v>
+        <v>287.07517</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>281.48458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>510.24456</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>251.544</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>619.3288400000001</v>
+        <v>1092.87506</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>577.89974</v>
+        <v>741.68681</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>628.35668</v>
+        <v>1720.58353</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>510.88674</v>
+        <v>962.66129</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>759.0600700000001</v>
+        <v>1399.33391</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>417.39076</v>
+        <v>784.36176</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>410.80853</v>
+        <v>1084.30662</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>408.94616</v>
+        <v>859.02683</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>98.52964999999999</v>
+        <v>776.5615</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1156.37951</v>
+        <v>1815.69242</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>937.8786799999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2218.87576</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2234.715</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>559.0722</v>
+        <v>1032.61842</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>518.96874</v>
+        <v>682.7558100000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>579.3435500000001</v>
+        <v>1671.5704</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>442.4332</v>
+        <v>885.82676</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>580.57254</v>
+        <v>1137.70292</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>374.68654</v>
+        <v>728.8659099999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>320.40559</v>
+        <v>934.81724</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>329.28677</v>
+        <v>731.50217</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>84.03089999999999</v>
+        <v>600.6968300000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>946.97531</v>
+        <v>1606.28822</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>576.7867199999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1857.7838</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2101.277</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>60.25664</v>
@@ -2558,22 +2669,22 @@
         <v>49.01313</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>68.45354</v>
+        <v>76.83453</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>178.48753</v>
+        <v>261.63099</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>42.70421999999999</v>
+        <v>55.49585</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>90.40294</v>
+        <v>149.48938</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>79.65939</v>
+        <v>127.52466</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>14.49875</v>
+        <v>175.86467</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>209.4042</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>361.09196</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>133.438</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>392.3746899999999</v>
+        <v>367.18459</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>175.01132</v>
+        <v>368.43015</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1145.06372</v>
+        <v>-2252.14437</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-992.52653</v>
+        <v>-1663.60573</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1899.61855</v>
+        <v>-4494.721860000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-756.7110799999999</v>
+        <v>861.0479399999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-404.68369</v>
+        <v>11134.83802</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>543.19389</v>
+        <v>6963.15908</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>853.04297</v>
+        <v>1139.75918</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3296.59074</v>
+        <v>34329.20143</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2600.17778</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>15427.83695</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3133.476</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1078.12031</v>
+        <v>1734.88979</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>916.59935</v>
+        <v>1085.28296</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1547.14089</v>
+        <v>2194.62393</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>982.92544</v>
+        <v>1491.04264</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1106.78519</v>
+        <v>1901.76508</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1463.21496</v>
+        <v>5073.38934</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1282.89058</v>
+        <v>2898.55301</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>413.5482900000001</v>
+        <v>1394.91281</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1025.93122</v>
+        <v>94571.76621</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3749.12512</v>
+        <v>4527.08441</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>771.67091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1243.37598</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8795.156999999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0.11948</v>
+        <v>480.05948</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
@@ -2681,13 +2807,13 @@
         <v>5.00667</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>9.31141</v>
+        <v>3317.65501</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>8.20152</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>106.46941</v>
+        <v>116.80841</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
@@ -2696,118 +2822,133 @@
         <v>0</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2.66376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>369.96961</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1078.00083</v>
+        <v>1254.83031</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>916.59935</v>
+        <v>1085.28296</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1178.57948</v>
+        <v>1826.06252</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>981.94413</v>
+        <v>1490.06133</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1101.77852</v>
+        <v>1896.75841</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1453.90355</v>
+        <v>1755.73433</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1274.68906</v>
+        <v>2890.35149</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>307.07888</v>
+        <v>1278.1044</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1025.93122</v>
+        <v>94571.76621</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3749.12512</v>
+        <v>4527.08441</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>769.00715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>873.4063699999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8795.156999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>379.28054</v>
+        <v>1930.71583</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>671.0987000000001</v>
+        <v>1002.97885</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3713.31766</v>
+        <v>3909.21368</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>374.11045</v>
+        <v>392.8538</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>471.95577</v>
+        <v>839.3071000000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2515.03166</v>
+        <v>3400.77233</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3378.85601</v>
+        <v>4411.21464</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2572.21274</v>
+        <v>3332.34272</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>612.25399</v>
+        <v>1467.61802</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>788.25305</v>
+        <v>1083.76045</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>566.48871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2626.2221</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4007.795</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>71.25621000000001</v>
+        <v>1607.22104</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0</v>
+        <v>1.89588</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>14.84526</v>
+        <v>25.84526</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>7.12401</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>3.02748</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>0.57167</v>
+        <v>108.87068</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>178.29849</v>
+        <v>532.98398</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>33.69388</v>
+        <v>51.96308000000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>55.41827000000001</v>
+        <v>67.55736999999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>82.33861999999999</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>62.35517</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>83.17100000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>10.34268</v>
+        <v>14.77922</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>116.47396</v>
+        <v>138.92016</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1073.16404</v>
+        <v>1074.0475</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>43.50094</v>
+        <v>47.83037</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>119.60157</v>
+        <v>136.06166</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>322.1485500000001</v>
+        <v>322.1559</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3.12061</v>
+        <v>26.78027</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>202.9718</v>
+        <v>205.86636</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.5166000000000001</v>
+        <v>8.465029999999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>8.013210000000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>79.34987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1697.09463</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2933.692</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>297.68165</v>
+        <v>308.71557</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>554.62474</v>
+        <v>862.1628099999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2625.30836</v>
+        <v>2809.32092</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>330.60951</v>
+        <v>337.89942</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>349.32672</v>
+        <v>700.2179599999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2192.31144</v>
+        <v>2969.74575</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3197.43691</v>
+        <v>3851.45039</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2335.54706</v>
+        <v>3074.51328</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>556.31912</v>
+        <v>1391.59562</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>697.90122</v>
+        <v>993.40862</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>424.78367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>866.7723000000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>990.932</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1091.21446</v>
+        <v>171.3585499999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>420.51197</v>
+        <v>450.73426</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3311.24049</v>
+        <v>-3966.73412</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-383.71154</v>
+        <v>-565.41689</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-1264.78913</v>
+        <v>-3432.26388</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1808.52778</v>
+        <v>2533.66495</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2500.64912</v>
+        <v>9622.176389999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1615.47056</v>
+        <v>5025.72917</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1266.7202</v>
+        <v>94243.90736999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>6257.462810000001</v>
+        <v>37772.52539</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2805.35998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14044.99083</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7920.838</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>440.20493</v>
+        <v>470.79411</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>467.95525</v>
+        <v>541.00615</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>387.969</v>
+        <v>634.33849</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>278.0129700000001</v>
+        <v>417.83717</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>273.18389</v>
+        <v>421.54863</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>338.1261</v>
+        <v>1098.67222</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>322.44687</v>
+        <v>625.4352700000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>314.83597</v>
+        <v>531.42923</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>169.9388</v>
+        <v>5166.500160000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1008.20572</v>
+        <v>1104.35178</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1254.74352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4181.0148</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3148.522</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>651.00953</v>
+        <v>-299.43556</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-47.44328000000003</v>
+        <v>-90.27189</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3699.20949</v>
+        <v>-4601.07261</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-661.72451</v>
+        <v>-983.2540600000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1537.97302</v>
+        <v>-3853.81251</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2146.65388</v>
+        <v>1434.99273</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2823.09599</v>
+        <v>8996.741119999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1930.30653</v>
+        <v>4494.29994</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1096.7814</v>
+        <v>89077.40720999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5249.25709</v>
+        <v>36668.17361000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1550.61646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9863.97603</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4772.316</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>402</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>